--- a/thesis-binary-classification/results/binary-classification-results.xlsx
+++ b/thesis-binary-classification/results/binary-classification-results.xlsx
@@ -308,15 +308,15 @@
   </sheetPr>
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G110" activeCellId="0" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,23 +1385,23 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>2</v>
+      <c r="C67" s="1" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>0.483</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,22 +1485,22 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,22 +1685,22 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1785,22 +1785,22 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1885,22 +1885,22 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2085,22 +2085,22 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2185,22 +2185,22 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2285,22 +2285,22 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3010,14 +3010,15 @@
   </sheetPr>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,14 +5112,15 @@
   </sheetPr>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/thesis-binary-classification/results/binary-classification-results.xlsx
+++ b/thesis-binary-classification/results/binary-classification-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lucene" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Ubuntu" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Thunderbird" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Thunderbird" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Ubuntu" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -308,8 +308,8 @@
   </sheetPr>
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G110" activeCellId="0" sqref="G110"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F99" activeCellId="0" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1392,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.599</v>
+        <v>0.682</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>0.727</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>0.785</v>
+        <v>0.719</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>0.483</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,16 +1492,16 @@
         <v>12</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0</v>
+        <v>0.682</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>0</v>
+        <v>0.719</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>0</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,16 +1592,16 @@
         <v>13</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>0</v>
+        <v>0.682</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>0</v>
+        <v>0.719</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>0</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,16 +1692,16 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0</v>
+        <v>0.676</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>0</v>
+        <v>0.722</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>0</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,16 +1792,16 @@
         <v>15</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>0</v>
+        <v>0.671</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>0</v>
+        <v>0.724</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,16 +1892,16 @@
         <v>16</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>0</v>
+        <v>0.697</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>0</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,16 +1992,16 @@
         <v>17</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>0</v>
+        <v>0.697</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>0</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,16 +2092,16 @@
         <v>18</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>0</v>
+        <v>0.677</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>0</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,16 +2192,16 @@
         <v>19</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>0</v>
+        <v>0.658</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>0</v>
+        <v>0.705</v>
       </c>
       <c r="F115" s="1" t="n">
-        <v>0</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,16 +2292,16 @@
         <v>20</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>0</v>
+        <v>0.677</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>72.7</v>
+        <v>0.727</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="F121" s="1" t="n">
-        <v>0</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,14 +3010,14 @@
   </sheetPr>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -3049,16 +3049,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>72.64</v>
+        <v>67.6</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>74.76</v>
+        <v>69.96</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>76</v>
+        <v>71.33</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>70.15</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,36 +3069,36 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>72.86</v>
+        <v>69.78</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>70.74</v>
+        <v>66.07</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>65.96</v>
+        <v>61.68</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>82.66</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>53.37</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>77.16</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>5.7</v>
+      <c r="C5" s="1" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.767</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,16 +3109,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>67.34</v>
+        <v>62.35</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>71.06</v>
+        <v>64.84</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>74.01</v>
+        <v>65.17</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>62.15</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,16 +3129,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>65.44</v>
+        <v>58.54</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>66.46</v>
+        <v>64.64</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>64.46</v>
+        <v>68.92</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>66.99</v>
+        <v>51.89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,16 +3149,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>74.31</v>
+        <v>68.18</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>74.15</v>
+        <v>68.59</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>71.48</v>
+        <v>67.47</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>78.15</v>
+        <v>70.03</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,36 +3169,36 @@
         <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>72.92</v>
+        <v>68.31</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>71.78</v>
+        <v>66.75</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>67.83</v>
+        <v>64.22</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>80.17</v>
+        <v>74.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
+      <c r="C11" s="1" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.767</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,16 +3209,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>68.55</v>
+        <v>61.15</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>71.27</v>
+        <v>62.73</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>72.71</v>
+        <v>62.54</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>65.07</v>
+        <v>60.57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,16 +3229,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>67</v>
+        <v>61.97</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>68.54</v>
+        <v>65.71</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>67.82</v>
+        <v>68.02</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>66.52</v>
+        <v>57.73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,16 +3249,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>74.31</v>
+        <v>68.18</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>74.15</v>
+        <v>68.59</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>71.48</v>
+        <v>67.47</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>78.15</v>
+        <v>70.03</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,36 +3269,36 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>72.92</v>
+        <v>68.31</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>71.78</v>
+        <v>66.75</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>67.83</v>
+        <v>64.22</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>80.17</v>
+        <v>74.4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
+      <c r="C17" s="1" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.767</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,16 +3309,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>68.97</v>
+        <v>61.15</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>71.78</v>
+        <v>62.73</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>73.23</v>
+        <v>62.54</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>65.74</v>
+        <v>60.57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,16 +3329,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>68.55</v>
+        <v>61.97</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>71.27</v>
+        <v>65.71</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>72.71</v>
+        <v>68.02</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>65.07</v>
+        <v>57.73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,16 +3349,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>75.41</v>
+        <v>72.15</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>73.79</v>
+        <v>70.35</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>68.32</v>
+        <v>66.66</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>85.03</v>
+        <v>79.11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,36 +3369,36 @@
         <v>14</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>74.07</v>
+        <v>70.19</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>72.5</v>
+        <v>67.52</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>68.13</v>
+        <v>63.94</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>82.53</v>
+        <v>79.19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
+      <c r="C23" s="1" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.758</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,16 +3409,16 @@
         <v>14</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>65.23</v>
+        <v>56.47</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>70.41</v>
+        <v>60.85</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>75.62</v>
+        <v>62.14</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>57.79</v>
+        <v>52.47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,16 +3429,16 @@
         <v>14</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>62.96</v>
+        <v>57.82</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>68.69</v>
+        <v>64.9</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>73.57</v>
+        <v>70.24</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>55.62</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,16 +3449,16 @@
         <v>15</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>75.83</v>
+        <v>73.28</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>73.54</v>
+        <v>70.44</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>67.19</v>
+        <v>65.64</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>87.8</v>
+        <v>83.97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,36 +3469,36 @@
         <v>15</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>74.24</v>
+        <v>69.99</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>72.64</v>
+        <v>67.36</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>68.28</v>
+        <v>63.91</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>82.63</v>
+        <v>78.85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
+      <c r="C29" s="1" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.762</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,16 +3509,16 @@
         <v>15</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>61.61</v>
+        <v>52.3</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>68.58</v>
+        <v>58.75</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>75.07</v>
+        <v>60.07</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>52.59</v>
+        <v>46.66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,16 +3529,16 @@
         <v>15</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>61.04</v>
+        <v>52.65</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>67.79</v>
+        <v>62.7</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>73.8</v>
+        <v>69.97</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>52.57</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,16 +3549,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>68.9</v>
+        <v>62.12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>69.3</v>
+        <v>64.22</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>67.14</v>
+        <v>64.36</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>72</v>
+        <v>61.38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,36 +3569,36 @@
         <v>28</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>69.32</v>
+        <v>63.45</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>69.26</v>
+        <v>63.74</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>67.24</v>
+        <v>62.61</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>73.46</v>
+        <v>65.53</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
+      <c r="C35" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.683</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,16 +3609,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>57.61</v>
+        <v>57.44</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>65.95</v>
+        <v>60.56</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>71.96</v>
+        <v>60.97</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>48.49</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,16 +3629,16 @@
         <v>28</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>57.9</v>
+        <v>53.88</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>66.46</v>
+        <v>61.73</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>73.77</v>
+        <v>66.18</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>47.99</v>
+        <v>46.27</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,16 +3649,16 @@
         <v>29</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>70.59</v>
+        <v>63.17</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>71.38</v>
+        <v>64.9</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>70.03</v>
+        <v>65.12</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>72.15</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,36 +3669,36 @@
         <v>29</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>69.35</v>
+        <v>63.51</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>69.08</v>
+        <v>62.86</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>67.16</v>
+        <v>61.37</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>73.49</v>
+        <v>67.43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
+      <c r="C41" s="1" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.683</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,16 +3709,16 @@
         <v>29</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>58.43</v>
+        <v>55.3</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>66.35</v>
+        <v>62.25</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>72.66</v>
+        <v>65.74</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>49.51</v>
+        <v>48.64</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,16 +3729,16 @@
         <v>29</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>60.44</v>
+        <v>55.92</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>68</v>
+        <v>63.06</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>74.84</v>
+        <v>66.72</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>51.1</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,16 +3749,16 @@
         <v>18</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>75.03</v>
+        <v>72.36</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>72.71</v>
+        <v>69.27</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>66.75</v>
+        <v>64.48</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>86.7</v>
+        <v>83.26</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,36 +3769,36 @@
         <v>18</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>73.42</v>
+        <v>69.63</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>72.21</v>
+        <v>67.49</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>67.93</v>
+        <v>64.36</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>81.37</v>
+        <v>77.09</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0</v>
+      <c r="C47" s="1" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0.784</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,16 +3809,16 @@
         <v>18</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>61.43</v>
+        <v>53.22</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>64.8</v>
+        <v>59.98</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>65.39</v>
+        <v>62.37</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>58.25</v>
+        <v>47.14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,16 +3829,16 @@
         <v>18</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>61.88</v>
+        <v>51.53</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>69.15</v>
+        <v>62.47</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>76.8</v>
+        <v>70.4</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>52.38</v>
+        <v>41.55</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,16 +3849,16 @@
         <v>19</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>74.83</v>
+        <v>71.56</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>73.39</v>
+        <v>69.54</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>68.36</v>
+        <v>65.77</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>83.88</v>
+        <v>79.27</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,36 +3869,36 @@
         <v>19</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>73.25</v>
+        <v>69.65</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>71.81</v>
+        <v>67.49</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>67.51</v>
+        <v>64.28</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>81.59</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0</v>
+      <c r="C53" s="1" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0.774</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,16 +3909,16 @@
         <v>19</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>61.39</v>
+        <v>56.76</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>64.52</v>
+        <v>61.37</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>64.57</v>
+        <v>62.93</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>58.85</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,16 +3929,16 @@
         <v>19</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>63.44</v>
+        <v>55.06</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>69.05</v>
+        <v>63.67</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>74.02</v>
+        <v>70.19</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>55.86</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,16 +3949,16 @@
         <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>75.95</v>
+        <v>69.22</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>74.83</v>
+        <v>69.02</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>71.93</v>
+        <v>67.44</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>79.1</v>
+        <v>71.99</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,36 +3969,36 @@
         <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>73.37</v>
+        <v>68.99</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>71.99</v>
+        <v>67.3</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>67.56</v>
+        <v>64.56</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>81.59</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
+      <c r="C59" s="1" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,16 +4009,16 @@
         <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>69.14</v>
+        <v>60.34</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>72.06</v>
+        <v>62.54</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>75.07</v>
+        <v>62.42</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>64.86</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,16 +4029,16 @@
         <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>66.29</v>
+        <v>60.55</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>68.43</v>
+        <v>65.87</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>68.42</v>
+        <v>69.84</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>64.59</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,16 +4054,16 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>75.89</v>
+        <v>71.61</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>74.76</v>
+        <v>69.96</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>73.43</v>
+        <v>68.81</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>79.16</v>
+        <v>75.17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,16 +4074,16 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>67.44</v>
+        <v>60.49</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>70.74</v>
+        <v>66.07</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>78.33</v>
+        <v>75.04</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>60.09</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,16 +4094,16 @@
         <v>7</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>68.16</v>
+        <v>68.38</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>53.37</v>
+        <v>54.7</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>52.85</v>
+        <v>53.22</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>98.51</v>
+        <v>96.74</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,16 +4114,16 @@
         <v>7</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>66.42</v>
+        <v>66.55</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>66.57</v>
+        <v>64.84</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>67.83</v>
+        <v>64.57</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>65.51</v>
+        <v>69.24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,25 +4134,17 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>71.56</v>
+        <v>65.79</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>72.17</v>
+        <v>65.45</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>74.04</v>
+        <v>66.59</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>69.76</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+        <v>65.99</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
@@ -4162,16 +4154,16 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>73.16</v>
+        <v>68.49</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>74.15</v>
+        <v>68.59</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>76.91</v>
+        <v>70.32</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>70.4</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,16 +4174,16 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>69.72</v>
+        <v>64.58</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>71.78</v>
+        <v>66.75</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>77.36</v>
+        <v>71.17</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>64.41</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,16 +4194,16 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>51.51</v>
+        <v>48.63</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,16 +4214,16 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>68.92</v>
+        <v>63.88</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>68.61</v>
+        <v>62.76</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>68.45</v>
+        <v>63.29</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>69.69</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,25 +4234,25 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>71.45</v>
+        <v>64.9</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>73.04</v>
+        <v>66.07</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>76.22</v>
+        <v>68.93</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>67.58</v>
+        <v>62.15</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -4270,16 +4262,16 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>73.16</v>
+        <v>68.49</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>74.15</v>
+        <v>68.59</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>76.91</v>
+        <v>70.32</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>70.4</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,16 +4282,16 @@
         <v>13</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>69.72</v>
+        <v>64.58</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>71.78</v>
+        <v>66.75</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>77.36</v>
+        <v>71.17</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>64.41</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,16 +4302,16 @@
         <v>13</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>51.51</v>
+        <v>48.63</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,16 +4322,16 @@
         <v>13</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>68.92</v>
+        <v>63.88</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>68.61</v>
+        <v>62.76</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>68.45</v>
+        <v>63.29</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>69.69</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,25 +4342,25 @@
         <v>13</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>71.45</v>
+        <v>64.9</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>73.04</v>
+        <v>66.07</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>76.22</v>
+        <v>68.93</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>67.58</v>
+        <v>62.15</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -4378,16 +4370,16 @@
         <v>14</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>70.83</v>
+        <v>67.83</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>73.79</v>
+        <v>70.35</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>81.85</v>
+        <v>76.03</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>63.09</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,16 +4390,16 @@
         <v>14</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>70.02</v>
+        <v>63.97</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>72.5</v>
+        <v>67.52</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>78.94</v>
+        <v>73.99</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>63.86</v>
+        <v>57.37</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,16 +4410,16 @@
         <v>14</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>51.51</v>
+        <v>48.63</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,16 +4430,16 @@
         <v>14</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>65.72</v>
+        <v>64.27</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>63.91</v>
+        <v>60.92</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>63.43</v>
+        <v>60.41</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>68.94</v>
+        <v>69.51</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,117 +4450,133 @@
         <v>14</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>71.28</v>
+        <v>68.66</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>71.02</v>
+        <v>67.72</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>71.39</v>
+        <v>68.02</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>71.84</v>
-      </c>
+        <v>70.06</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="0" t="n">
-        <v>69.6</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>73.54</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>83.98</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>59.94</v>
+      <c r="C89" s="3" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>70.44</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>78.96</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>58.18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="0" t="n">
-        <v>70.09</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>72.64</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>78.87</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>63.98</v>
+      <c r="C90" s="3" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>67.36</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>73.88</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>57.48</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="0" t="n">
-        <v>67.63</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>100</v>
+      <c r="C91" s="3" t="n">
+        <v>59.74</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="0" t="n">
-        <v>64.19</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>61.45</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>68.91</v>
+      <c r="C92" s="3" t="n">
+        <v>63.31</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>58.81</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>70.34</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="0" t="n">
-        <v>72.11</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>71.42</v>
-      </c>
-      <c r="E93" s="0" t="n">
-        <v>70.84</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>73.68</v>
-      </c>
+      <c r="C93" s="3" t="n">
+        <v>67.43</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>70.94</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
@@ -4578,16 +4586,16 @@
         <v>16</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>68.85</v>
+        <v>65.7</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>69.3</v>
+        <v>64.22</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>71.8</v>
+        <v>64.93</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>67.11</v>
+        <v>67.79</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,16 +4606,16 @@
         <v>16</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>68.45</v>
+        <v>63.6</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>69.26</v>
+        <v>63.74</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>72.61</v>
+        <v>65.66</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>66.3</v>
+        <v>62.74</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,16 +4626,16 @@
         <v>16</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>51.51</v>
+        <v>48.63</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,16 +4646,16 @@
         <v>16</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>67.4</v>
+        <v>62.98</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>64.95</v>
+        <v>60.63</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>63.59</v>
+        <v>60.98</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>72.32</v>
+        <v>66.21</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,17 +4666,25 @@
         <v>16</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>71.01</v>
+        <v>65.79</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>68.22</v>
+        <v>63.19</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>65.94</v>
+        <v>62.81</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>77.47</v>
-      </c>
+        <v>70.05</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
@@ -4678,16 +4694,16 @@
         <v>17</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>73.48</v>
+        <v>68.71</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>74.48</v>
+        <v>69.41</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>77.34</v>
+        <v>71.85</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>70.6</v>
+        <v>66.59</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,16 +4714,16 @@
         <v>17</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>70.18</v>
+        <v>65.58</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>72.35</v>
+        <v>67.56</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>78.38</v>
+        <v>71.86</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>64.32</v>
+        <v>61.49</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,16 +4734,16 @@
         <v>17</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>51.51</v>
+        <v>48.63</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,16 +4754,16 @@
         <v>17</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>68.06</v>
+        <v>65.05</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>66.92</v>
+        <v>63.18</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>66.86</v>
+        <v>63.29</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>69.94</v>
+        <v>67.55</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4758,25 +4774,17 @@
         <v>17</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>70.29</v>
+        <v>67.13</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>71.49</v>
+        <v>67.43</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>73.57</v>
+        <v>69.09</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>67.73</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+        <v>66.06</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
@@ -4786,16 +4794,16 @@
         <v>18</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>68.69</v>
+        <v>65</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>72.71</v>
+        <v>69.27</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>82.81</v>
+        <v>77.55</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>59.5</v>
+        <v>56.39</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,16 +4814,16 @@
         <v>18</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>69.98</v>
+        <v>64.76</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>72.21</v>
+        <v>67.49</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>78.89</v>
+        <v>72.74</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>64.17</v>
+        <v>59.27</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,16 +4834,16 @@
         <v>18</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>51.51</v>
+        <v>48.63</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,16 +4854,16 @@
         <v>18</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>66.78</v>
+        <v>64.8</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>64.8</v>
+        <v>60.01</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>63.68</v>
+        <v>58.97</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>70.61</v>
+        <v>72.82</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,25 +4874,25 @@
         <v>18</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>71.43</v>
+        <v>68.14</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>70.34</v>
+        <v>65.55</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>69.35</v>
+        <v>64.6</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>74.2</v>
+        <v>72.98</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
@@ -4894,16 +4902,16 @@
         <v>19</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>70.69</v>
+        <v>66.91</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>73.39</v>
+        <v>69.54</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>81.16</v>
+        <v>75.05</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>63.63</v>
+        <v>60.85</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,16 +4922,16 @@
         <v>19</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>69.35</v>
+        <v>64.69</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>71.81</v>
+        <v>67.49</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>78.73</v>
+        <v>72.66</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>63.28</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,16 +4942,16 @@
         <v>19</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>51.51</v>
+        <v>48.63</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,16 +4962,16 @@
         <v>19</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>66.39</v>
+        <v>64.87</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>64.52</v>
+        <v>61.4</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>3.77</v>
+        <v>60.8</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>69.64</v>
+        <v>70.51</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,25 +4982,25 @@
         <v>19</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>71.37</v>
+        <v>67.5</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>71.2</v>
+        <v>66.33</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>71.29</v>
+        <v>66.13</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>71.77</v>
+        <v>69.64</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
@@ -5002,16 +5010,16 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>73.74</v>
+        <v>68.61</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>74.83</v>
+        <v>69.05</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>78.03</v>
+        <v>71.11</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>70.74</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,16 +5030,16 @@
         <v>20</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>69.63</v>
+        <v>65.08</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>71.99</v>
+        <v>67.27</v>
       </c>
       <c r="E120" s="3" t="n">
-        <v>78.63</v>
+        <v>71.67</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>63.5</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,16 +5050,16 @@
         <v>20</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>67.63</v>
+        <v>59.74</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>51.51</v>
+        <v>48.69</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>51.51</v>
+        <v>44.87</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,16 +5070,16 @@
         <v>20</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>70.3</v>
+        <v>64.52</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>69.3</v>
+        <v>62.89</v>
       </c>
       <c r="E122" s="3" t="n">
-        <v>68.46</v>
+        <v>62.94</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>72.63</v>
+        <v>66.77</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,16 +5090,16 @@
         <v>20</v>
       </c>
       <c r="C123" s="3" t="n">
+        <v>66.85</v>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>67.43</v>
+      </c>
+      <c r="E123" s="3" t="n">
         <v>69.51</v>
       </c>
-      <c r="D123" s="3" t="n">
-        <v>71.06</v>
-      </c>
-      <c r="E123" s="3" t="n">
-        <v>74.73</v>
-      </c>
       <c r="F123" s="3" t="n">
-        <v>65.66</v>
+        <v>65.48</v>
       </c>
     </row>
   </sheetData>
@@ -5112,14 +5120,14 @@
   </sheetPr>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -5151,16 +5159,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>67.6</v>
+        <v>72.64</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>69.96</v>
+        <v>74.76</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>71.33</v>
+        <v>76</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>64.78</v>
+        <v>70.15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,36 +5179,36 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>69.78</v>
+        <v>72.86</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>66.07</v>
+        <v>70.74</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>61.68</v>
+        <v>65.96</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>81.58</v>
+        <v>82.66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>75.33</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>11.21</v>
+      <c r="C5" s="1" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.754</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>62.35</v>
+        <v>67.34</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>64.84</v>
+        <v>71.06</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>65.17</v>
+        <v>74.01</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>60.4</v>
+        <v>62.15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,16 +5239,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>58.54</v>
+        <v>65.44</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>64.64</v>
+        <v>66.46</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>68.92</v>
+        <v>64.46</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>51.89</v>
+        <v>66.99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,16 +5259,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>68.18</v>
+        <v>74.31</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>68.59</v>
+        <v>74.15</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>67.47</v>
+        <v>71.48</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>70.03</v>
+        <v>78.15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,36 +5279,36 @@
         <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>68.31</v>
+        <v>72.92</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>66.75</v>
+        <v>71.78</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>64.22</v>
+        <v>67.83</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>74.4</v>
+        <v>80.17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>10</v>
+      <c r="C11" s="1" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.754</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,16 +5319,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>61.15</v>
+        <v>68.55</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>62.73</v>
+        <v>71.27</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>62.54</v>
+        <v>72.71</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>60.57</v>
+        <v>65.07</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,16 +5339,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>61.97</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>65.71</v>
+        <v>68.54</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>68.02</v>
+        <v>67.82</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>57.73</v>
+        <v>66.52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,16 +5359,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>68.18</v>
+        <v>74.31</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>68.59</v>
+        <v>74.15</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>67.47</v>
+        <v>71.48</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>70.03</v>
+        <v>78.15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,36 +5379,36 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>68.31</v>
+        <v>72.92</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>66.75</v>
+        <v>71.78</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>64.22</v>
+        <v>67.83</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>74.4</v>
+        <v>80.17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>10</v>
+      <c r="C17" s="1" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.754</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,16 +5419,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>61.15</v>
+        <v>68.97</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>62.73</v>
+        <v>71.78</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>62.54</v>
+        <v>73.23</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>60.57</v>
+        <v>65.74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,16 +5439,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>61.97</v>
+        <v>68.55</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>65.71</v>
+        <v>71.27</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>68.02</v>
+        <v>72.71</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>57.73</v>
+        <v>65.07</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,16 +5459,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>72.15</v>
+        <v>75.41</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>70.35</v>
+        <v>73.79</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>66.66</v>
+        <v>68.32</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>79.11</v>
+        <v>85.03</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,36 +5479,36 @@
         <v>14</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>70.19</v>
+        <v>74.07</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>67.52</v>
+        <v>72.5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>63.94</v>
+        <v>68.13</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>79.19</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>10</v>
+      <c r="C23" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.749</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,16 +5519,16 @@
         <v>14</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>56.47</v>
+        <v>65.23</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>60.85</v>
+        <v>70.41</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>62.14</v>
+        <v>75.62</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>52.47</v>
+        <v>57.79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,16 +5539,16 @@
         <v>14</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>57.82</v>
+        <v>62.96</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>64.9</v>
+        <v>68.69</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>70.24</v>
+        <v>73.57</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>49.86</v>
+        <v>55.62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,16 +5559,16 @@
         <v>15</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>73.28</v>
+        <v>75.83</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>70.44</v>
+        <v>73.54</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>65.64</v>
+        <v>67.19</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>83.97</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,36 +5579,36 @@
         <v>15</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>69.99</v>
+        <v>74.24</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>67.36</v>
+        <v>72.64</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>63.91</v>
+        <v>68.28</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>78.85</v>
+        <v>82.63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>10</v>
+      <c r="C29" s="1" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.745</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,16 +5619,16 @@
         <v>15</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>52.3</v>
+        <v>61.61</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>58.75</v>
+        <v>68.58</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>60.07</v>
+        <v>75.07</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>46.66</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,16 +5639,16 @@
         <v>15</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>52.65</v>
+        <v>61.04</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>62.7</v>
+        <v>67.79</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>69.97</v>
+        <v>73.8</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>43.07</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,16 +5659,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>62.12</v>
+        <v>68.9</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>64.22</v>
+        <v>69.3</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>64.36</v>
+        <v>67.14</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>61.38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,36 +5679,36 @@
         <v>28</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>63.45</v>
+        <v>69.32</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>63.74</v>
+        <v>69.26</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>62.61</v>
+        <v>67.24</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>65.53</v>
+        <v>73.46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>10</v>
+      <c r="C35" s="1" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0.659</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5711,16 +5719,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>57.44</v>
+        <v>57.61</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>60.56</v>
+        <v>65.95</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>60.97</v>
+        <v>71.96</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>55.4</v>
+        <v>48.49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,16 +5739,16 @@
         <v>28</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>53.88</v>
+        <v>57.9</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>61.73</v>
+        <v>66.46</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>66.18</v>
+        <v>73.77</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>46.27</v>
+        <v>47.99</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,16 +5759,16 @@
         <v>29</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>63.17</v>
+        <v>70.59</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>64.9</v>
+        <v>71.38</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>65.12</v>
+        <v>70.03</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>62.96</v>
+        <v>72.15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,36 +5779,36 @@
         <v>29</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>63.51</v>
+        <v>69.35</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>62.86</v>
+        <v>69.08</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>61.37</v>
+        <v>67.16</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>67.43</v>
+        <v>73.49</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>10</v>
+      <c r="C41" s="1" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0.659</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,16 +5819,16 @@
         <v>29</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>55.3</v>
+        <v>58.43</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>62.25</v>
+        <v>66.35</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>65.74</v>
+        <v>72.66</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>48.64</v>
+        <v>49.51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,16 +5839,16 @@
         <v>29</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>55.92</v>
+        <v>60.44</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>63.06</v>
+        <v>68</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>66.72</v>
+        <v>74.84</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>48.75</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,16 +5859,16 @@
         <v>18</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>72.36</v>
+        <v>75.03</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>69.27</v>
+        <v>72.71</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>64.48</v>
+        <v>66.75</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>83.26</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,36 +5879,36 @@
         <v>18</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>69.63</v>
+        <v>73.42</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>67.49</v>
+        <v>72.21</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>64.36</v>
+        <v>67.93</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>77.09</v>
+        <v>81.37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>10</v>
+      <c r="C47" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>0.723</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,16 +5919,16 @@
         <v>18</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>53.22</v>
+        <v>61.43</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>59.98</v>
+        <v>64.8</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>62.37</v>
+        <v>65.39</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>47.14</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,16 +5939,16 @@
         <v>18</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>51.53</v>
+        <v>61.88</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>62.47</v>
+        <v>69.15</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>70.4</v>
+        <v>76.8</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>41.55</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,16 +5959,16 @@
         <v>19</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>71.56</v>
+        <v>74.83</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>69.54</v>
+        <v>73.39</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>65.77</v>
+        <v>68.36</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>79.27</v>
+        <v>83.88</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,36 +5979,36 @@
         <v>19</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>69.65</v>
+        <v>73.25</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>67.49</v>
+        <v>71.81</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>64.28</v>
+        <v>67.51</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>77.12</v>
+        <v>81.59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>10</v>
+      <c r="C53" s="1" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0.746</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,16 +6019,16 @@
         <v>19</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>56.76</v>
+        <v>61.39</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>61.37</v>
+        <v>64.52</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>62.93</v>
+        <v>64.57</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>52.57</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,16 +6039,16 @@
         <v>19</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>55.06</v>
+        <v>63.44</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>63.67</v>
+        <v>69.05</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>70.19</v>
+        <v>74.02</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>46.02</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,16 +6059,16 @@
         <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>69.22</v>
+        <v>75.95</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>69.02</v>
+        <v>74.83</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>67.44</v>
+        <v>71.93</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>71.99</v>
+        <v>79.1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,36 +6079,36 @@
         <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>68.99</v>
+        <v>73.37</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>67.3</v>
+        <v>71.99</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>64.56</v>
+        <v>67.56</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>75.25</v>
+        <v>81.59</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>10</v>
+      <c r="C59" s="1" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>0.755</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,16 +6119,16 @@
         <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>60.34</v>
+        <v>69.14</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>62.54</v>
+        <v>72.06</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>62.42</v>
+        <v>75.07</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>59.11</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,16 +6139,16 @@
         <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>60.55</v>
+        <v>66.29</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>65.87</v>
+        <v>68.43</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>69.84</v>
+        <v>68.42</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>54.18</v>
+        <v>64.59</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,16 +6164,16 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>71.61</v>
+        <v>75.89</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>69.96</v>
+        <v>74.76</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>68.81</v>
+        <v>73.43</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>75.17</v>
+        <v>79.16</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,16 +6184,16 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>60.49</v>
+        <v>67.44</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>66.07</v>
+        <v>70.74</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>75.04</v>
+        <v>78.33</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>51.6</v>
+        <v>60.09</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,16 +6204,16 @@
         <v>7</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>68.38</v>
+        <v>68.16</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>54.7</v>
+        <v>53.37</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>53.22</v>
+        <v>52.85</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>96.74</v>
+        <v>98.51</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,16 +6224,16 @@
         <v>7</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>66.55</v>
+        <v>66.42</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>64.84</v>
+        <v>66.57</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>64.57</v>
+        <v>67.83</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>69.24</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,17 +6244,25 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>65.79</v>
+        <v>71.56</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>65.45</v>
+        <v>72.17</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>66.59</v>
+        <v>74.04</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>65.99</v>
-      </c>
+        <v>69.76</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
@@ -6256,16 +6272,16 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>68.49</v>
+        <v>73.16</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>68.59</v>
+        <v>74.15</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>70.32</v>
+        <v>76.91</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>67.7</v>
+        <v>70.4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6276,16 +6292,16 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>64.58</v>
+        <v>69.72</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>66.75</v>
+        <v>71.78</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>71.17</v>
+        <v>77.36</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>60.33</v>
+        <v>64.41</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6296,16 +6312,16 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>48.63</v>
+        <v>51.51</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,16 +6332,16 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>63.88</v>
+        <v>68.92</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>62.76</v>
+        <v>68.61</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>63.29</v>
+        <v>68.45</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>65.23</v>
+        <v>69.69</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,25 +6352,25 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>64.9</v>
+        <v>71.45</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>66.07</v>
+        <v>73.04</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>68.93</v>
+        <v>76.22</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>62.15</v>
+        <v>67.58</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -6364,16 +6380,16 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>68.49</v>
+        <v>73.16</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>68.59</v>
+        <v>74.15</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>70.32</v>
+        <v>76.91</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>67.7</v>
+        <v>70.4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,16 +6400,16 @@
         <v>13</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>64.58</v>
+        <v>69.72</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>66.75</v>
+        <v>71.78</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>71.17</v>
+        <v>77.36</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>60.33</v>
+        <v>64.41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,16 +6420,16 @@
         <v>13</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>48.63</v>
+        <v>51.51</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,16 +6440,16 @@
         <v>13</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>63.88</v>
+        <v>68.92</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>62.76</v>
+        <v>68.61</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>63.29</v>
+        <v>68.45</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>65.23</v>
+        <v>69.69</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,25 +6460,25 @@
         <v>13</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>64.9</v>
+        <v>71.45</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>66.07</v>
+        <v>73.04</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>68.93</v>
+        <v>76.22</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>62.15</v>
+        <v>67.58</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -6472,16 +6488,16 @@
         <v>14</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>67.83</v>
+        <v>70.83</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>70.35</v>
+        <v>73.79</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>76.03</v>
+        <v>81.85</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>62.04</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,16 +6508,16 @@
         <v>14</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>63.97</v>
+        <v>70.02</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>67.52</v>
+        <v>72.5</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>73.99</v>
+        <v>78.94</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>57.37</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,16 +6528,16 @@
         <v>14</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>48.63</v>
+        <v>51.51</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,16 +6548,16 @@
         <v>14</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>64.27</v>
+        <v>65.72</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>60.92</v>
+        <v>63.91</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>60.41</v>
+        <v>63.43</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>69.51</v>
+        <v>68.94</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6552,152 +6568,136 @@
         <v>14</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>68.66</v>
+        <v>71.28</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>67.72</v>
+        <v>71.02</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>68.02</v>
+        <v>71.39</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>70.06</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+        <v>71.84</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="3" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D89" s="3" t="n">
-        <v>70.44</v>
-      </c>
-      <c r="E89" s="3" t="n">
-        <v>78.96</v>
-      </c>
-      <c r="F89" s="3" t="n">
-        <v>58.18</v>
+      <c r="C89" s="0" t="n">
+        <v>69.6</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>73.54</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>83.98</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>59.94</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="3" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="D90" s="3" t="n">
-        <v>67.36</v>
-      </c>
-      <c r="E90" s="3" t="n">
-        <v>73.88</v>
-      </c>
-      <c r="F90" s="3" t="n">
-        <v>57.48</v>
+      <c r="C90" s="0" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>72.64</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>78.87</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>63.98</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="3" t="n">
-        <v>59.74</v>
-      </c>
-      <c r="D91" s="3" t="n">
-        <v>48.63</v>
-      </c>
-      <c r="E91" s="3" t="n">
-        <v>44.87</v>
-      </c>
-      <c r="F91" s="3" t="n">
-        <v>90</v>
+      <c r="C91" s="0" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="3" t="n">
-        <v>63.31</v>
-      </c>
-      <c r="D92" s="3" t="n">
-        <v>58.81</v>
-      </c>
-      <c r="E92" s="3" t="n">
-        <v>57.89</v>
-      </c>
-      <c r="F92" s="3" t="n">
-        <v>70.34</v>
+      <c r="C92" s="0" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>61.45</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>68.91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="3" t="n">
-        <v>67.43</v>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>65.39</v>
-      </c>
-      <c r="E93" s="3" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="F93" s="3" t="n">
-        <v>70.94</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="C93" s="0" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>71.42</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>70.84</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>73.68</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>65.7</v>
+        <v>68.85</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>64.22</v>
+        <v>69.3</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>64.93</v>
+        <v>71.8</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>67.79</v>
+        <v>67.11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,19 +6705,19 @@
         <v>8</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>63.6</v>
+        <v>68.45</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>63.74</v>
+        <v>69.26</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>65.66</v>
+        <v>72.61</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>62.74</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,19 +6725,19 @@
         <v>9</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>48.63</v>
+        <v>51.51</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,19 +6745,19 @@
         <v>10</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>62.98</v>
+        <v>67.4</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>60.63</v>
+        <v>64.95</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>60.98</v>
+        <v>63.59</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>66.21</v>
+        <v>72.32</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,47 +6765,39 @@
         <v>11</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>65.79</v>
+        <v>71.01</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>63.19</v>
+        <v>68.22</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>62.81</v>
+        <v>65.94</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>70.05</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+        <v>77.47</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>68.71</v>
+        <v>73.48</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>69.41</v>
+        <v>74.48</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>71.85</v>
+        <v>77.34</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>66.59</v>
+        <v>70.6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,19 +6805,19 @@
         <v>8</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>65.58</v>
+        <v>70.18</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>67.56</v>
+        <v>72.35</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>71.86</v>
+        <v>78.38</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>61.49</v>
+        <v>64.32</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,19 +6825,19 @@
         <v>9</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>48.63</v>
+        <v>51.51</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6853,19 +6845,19 @@
         <v>10</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>65.05</v>
+        <v>68.06</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>63.18</v>
+        <v>66.92</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>63.29</v>
+        <v>66.86</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>67.55</v>
+        <v>69.94</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,20 +6865,28 @@
         <v>11</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>67.13</v>
+        <v>70.29</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>67.43</v>
+        <v>71.49</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>69.09</v>
+        <v>73.57</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>66.06</v>
-      </c>
+        <v>67.73</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
@@ -6896,16 +6896,16 @@
         <v>18</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>65</v>
+        <v>68.69</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>69.27</v>
+        <v>72.71</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>77.55</v>
+        <v>82.81</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>56.39</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,16 +6916,16 @@
         <v>18</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>64.76</v>
+        <v>69.98</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>67.49</v>
+        <v>72.21</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>72.74</v>
+        <v>78.89</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>59.27</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,16 +6936,16 @@
         <v>18</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>48.63</v>
+        <v>51.51</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6956,16 +6956,16 @@
         <v>18</v>
       </c>
       <c r="C110" s="3" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D110" s="3" t="n">
         <v>64.8</v>
       </c>
-      <c r="D110" s="3" t="n">
-        <v>60.01</v>
-      </c>
       <c r="E110" s="3" t="n">
-        <v>58.97</v>
+        <v>63.68</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>72.82</v>
+        <v>70.61</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6976,25 +6976,25 @@
         <v>18</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>68.14</v>
+        <v>71.43</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>65.55</v>
+        <v>70.34</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>64.6</v>
+        <v>69.35</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>72.98</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
@@ -7004,16 +7004,16 @@
         <v>19</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>66.91</v>
+        <v>70.69</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>69.54</v>
+        <v>73.39</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>75.05</v>
+        <v>81.16</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>60.85</v>
+        <v>63.63</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,16 +7024,16 @@
         <v>19</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>64.69</v>
+        <v>69.35</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>67.49</v>
+        <v>71.81</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>72.66</v>
+        <v>78.73</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>59.09</v>
+        <v>63.28</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7044,16 +7044,16 @@
         <v>19</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>48.63</v>
+        <v>51.51</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,16 +7064,16 @@
         <v>19</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>64.87</v>
+        <v>66.39</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>61.4</v>
+        <v>64.52</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>60.8</v>
+        <v>3.77</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>70.51</v>
+        <v>69.64</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7084,25 +7084,25 @@
         <v>19</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>67.5</v>
+        <v>71.37</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>66.33</v>
+        <v>71.2</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>66.13</v>
+        <v>71.29</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>69.64</v>
+        <v>71.77</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
@@ -7112,16 +7112,16 @@
         <v>20</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>68.61</v>
+        <v>73.74</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>69.05</v>
+        <v>74.83</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>71.11</v>
+        <v>78.03</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>66.97</v>
+        <v>70.74</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,16 +7132,16 @@
         <v>20</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>65.08</v>
+        <v>69.63</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>67.27</v>
+        <v>71.99</v>
       </c>
       <c r="E120" s="3" t="n">
-        <v>71.67</v>
+        <v>78.63</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>60.52</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7152,16 +7152,16 @@
         <v>20</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>59.74</v>
+        <v>67.63</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>48.69</v>
+        <v>51.51</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>44.87</v>
+        <v>51.51</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,16 +7172,16 @@
         <v>20</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>64.52</v>
+        <v>70.3</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>62.89</v>
+        <v>69.3</v>
       </c>
       <c r="E122" s="3" t="n">
-        <v>62.94</v>
+        <v>68.46</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>66.77</v>
+        <v>72.63</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,16 +7192,16 @@
         <v>20</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>66.85</v>
+        <v>69.51</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>67.43</v>
+        <v>71.06</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>69.51</v>
+        <v>74.73</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>65.48</v>
+        <v>65.66</v>
       </c>
     </row>
   </sheetData>
